--- a/binary_character_function_and_operand/バイナリ文字列関数と演算子調査.xlsx
+++ b/binary_character_function_and_operand/バイナリ文字列関数と演算子調査.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEDF8A7-8BEF-4B16-9C51-E7AC8B429CF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010A2E52-D664-4692-82F6-DB92ED150DD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="178">
   <si>
     <t>関数/演算子</t>
   </si>
@@ -4725,12 +4725,894 @@
   <si>
     <t>\335\2575\241\223az\272\314AsI\256 A1\022\346\372N\211\251~\242\012\236\356\346KU\323\232!\222\231*'O\301\2506\272&lt;#\243\376\353\275EMD#d&lt;\350\016*\232\311O\245L\244\237</t>
   </si>
+  <si>
+    <t>文字符号化方式src_encodingのバイナリ文字列で表現したテキストを文字符号化方式dest_encodingのバイナリ文字列に変換します。（利用可能な変換は23.3.4を参照してください。）</t>
+  </si>
+  <si>
+    <t>文字符号化方式src_encodingのバイナリ文字列で表現したテキストをデータベース文字符号化方式のテキストに変換します。（利用可能な変換は23.3.4を参照してください。）</t>
+  </si>
+  <si>
+    <t>text文字列（データベース文字符号化方式で表現）を文字符号化方式dest_encodingのバイナリ文字列に変換します。（利用可能な変換は23.3.4を参照してください。）</t>
+  </si>
+  <si>
+    <r>
+      <t>convert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>bytea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>src_encoding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>dest_encoding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>bytea</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>convert_from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>bytea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>src_encoding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>text</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>convert_to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>dest_encoding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>bytea</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>encode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>bytea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>text</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>バイナリデータをテキスト表現形式に符号化します。サポートされている</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>値は、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0066A2"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>base64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0066A2"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>escape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0066A2"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>hex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>です。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>decode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>bytea</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>テキスト表現からバイナリデータに復号します。 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>値は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>encode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と同じです。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>convert('text_in_utf8', 'UTF8', 'LATIN1')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>\x746578745f696e5f75746638</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>convert_from('text_in_utf8', 'UTF8')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>text_in_utf8</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>convert_to('some_text', 'UTF8')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>\x736f6d655f74657874</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>encode('123\000\001', 'base64')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>MTIzAAE=</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>decode('MTIzAAE=', 'base64')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>\x3132330001</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>select convert('text_in_utf8', 'UTF8', 'EUC_JP'),</t>
+  </si>
+  <si>
+    <t>convert_from('text_in_utf8', 'UTF8'),</t>
+  </si>
+  <si>
+    <t>convert_to('some_text', 'UTF8'),</t>
+  </si>
+  <si>
+    <t>encode('123\000\001', 'base64'),</t>
+  </si>
+  <si>
+    <t>decode('MTIzAAE=', 'base64');</t>
+  </si>
+  <si>
+    <t>テキスト/バイナリ文字列変換関数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1)テキスト/バイナリ文字列変換関数の動作確認</t>
+    <rPh sb="19" eb="21">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>convert;"convert_from";"convert_to";"encode";"decode"</t>
+  </si>
+  <si>
+    <t>text_in_utf8;"text_in_utf8";"some_text";"MTIzAAE=";"123\000\001"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4879,8 +5761,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0066A2"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4914,6 +5803,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEEEE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4968,7 +5863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5059,6 +5954,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
@@ -5342,10 +6246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F26F7EB-7B22-4BC6-9C6E-17EEF59BEDFB}">
-  <dimension ref="B1:N139"/>
+  <dimension ref="B1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170:XFD171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6153,6 +7057,151 @@
         <v>83</v>
       </c>
     </row>
+    <row r="142" spans="2:14" ht="45">
+      <c r="B142" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" ht="23.25" thickBot="1">
+      <c r="B143" s="20"/>
+    </row>
+    <row r="144" spans="2:14">
+      <c r="B144" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" ht="19.5" thickBot="1">
+      <c r="B146" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" ht="75">
+      <c r="B147" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" ht="168.75">
+      <c r="B148" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" ht="69" thickBot="1">
+      <c r="B149" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" ht="56.25">
+      <c r="B150" s="27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" ht="168.75">
+      <c r="B151" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B152" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" ht="56.25">
+      <c r="B153" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" ht="150">
+      <c r="B154" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B155" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" ht="37.5">
+      <c r="B156" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" ht="112.5">
+      <c r="B157" s="35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" ht="36" thickBot="1">
+      <c r="B158" s="36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" ht="37.5">
+      <c r="B159" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" ht="75">
+      <c r="B160" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" ht="52.5" thickBot="1">
+      <c r="B161" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6">
+      <c r="B163" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" s="15" customFormat="1">
+      <c r="B164" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F164" s="18"/>
+    </row>
+    <row r="165" spans="2:6" s="15" customFormat="1">
+      <c r="B165" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F165" s="18"/>
+    </row>
+    <row r="166" spans="2:6" s="15" customFormat="1">
+      <c r="B166" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F166" s="18"/>
+    </row>
+    <row r="167" spans="2:6" s="15" customFormat="1">
+      <c r="B167" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F167" s="18"/>
+    </row>
+    <row r="168" spans="2:6" s="15" customFormat="1">
+      <c r="B168" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F168" s="18"/>
+    </row>
+    <row r="170" spans="2:6" s="15" customFormat="1">
+      <c r="B170" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F170" s="18"/>
+    </row>
+    <row r="171" spans="2:6" s="15" customFormat="1">
+      <c r="B171" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F171" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6167,8 +7216,11 @@
     <hyperlink ref="B111" r:id="rId9" location="FUNCTIONS-HASH-NOTE" display="https://www.postgresql.jp/document/13/html/functions-binarystring.html - FUNCTIONS-HASH-NOTE" xr:uid="{7A5552B1-8410-4D23-AFBA-FF325A8CD8BC}"/>
     <hyperlink ref="B114" r:id="rId10" location="FUNCTIONS-HASH-NOTE" display="https://www.postgresql.jp/document/13/html/functions-binarystring.html - FUNCTIONS-HASH-NOTE" xr:uid="{4E8ADF94-A47A-4255-9BB8-D38846DFB588}"/>
     <hyperlink ref="B117" r:id="rId11" location="FUNCTIONS-HASH-NOTE" display="https://www.postgresql.jp/document/13/html/functions-binarystring.html - FUNCTIONS-HASH-NOTE" xr:uid="{193BC9C3-7090-4564-A0E9-BA14B583B6FD}"/>
+    <hyperlink ref="B148" r:id="rId12" location="MULTIBYTE-CONVERSIONS-SUPPORTED" tooltip="23.3.4. 利用可能な文字セットの変換" display="MULTIBYTE-CONVERSIONS-SUPPORTED" xr:uid="{889D7CCF-2205-4F24-9B39-80F82A8F80DD}"/>
+    <hyperlink ref="B151" r:id="rId13" location="MULTIBYTE-CONVERSIONS-SUPPORTED" tooltip="23.3.4. 利用可能な文字セットの変換" display="https://www.postgresql.jp/document/13/html/multibyte.html - MULTIBYTE-CONVERSIONS-SUPPORTED" xr:uid="{9DB15788-8E82-491C-B8BC-D7BBB6C75F04}"/>
+    <hyperlink ref="B154" r:id="rId14" location="MULTIBYTE-CONVERSIONS-SUPPORTED" tooltip="23.3.4. 利用可能な文字セットの変換" display="https://www.postgresql.jp/document/13/html/multibyte.html - MULTIBYTE-CONVERSIONS-SUPPORTED" xr:uid="{4EE1FA04-5083-492E-A950-3E399FB61572}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>